--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Cadm3-Cadm3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Cadm3-Cadm3.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4.199582666666667</v>
+        <v>5.342589</v>
       </c>
       <c r="H2">
-        <v>12.598748</v>
+        <v>16.027767</v>
       </c>
       <c r="I2">
-        <v>0.3470882463138872</v>
+        <v>0.4438787133356475</v>
       </c>
       <c r="J2">
-        <v>0.3745187327618798</v>
+        <v>0.4621170122195802</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.199582666666667</v>
+        <v>5.342589</v>
       </c>
       <c r="N2">
-        <v>12.598748</v>
+        <v>16.027767</v>
       </c>
       <c r="O2">
-        <v>0.3470882463138872</v>
+        <v>0.4438787133356475</v>
       </c>
       <c r="P2">
-        <v>0.3745187327618798</v>
+        <v>0.4621170122195802</v>
       </c>
       <c r="Q2">
-        <v>17.63649457416712</v>
+        <v>28.543257222921</v>
       </c>
       <c r="R2">
-        <v>158.728451167504</v>
+        <v>256.8893150062891</v>
       </c>
       <c r="S2">
-        <v>0.1204702507292496</v>
+        <v>0.1970283121525099</v>
       </c>
       <c r="T2">
-        <v>0.1402642811895643</v>
+        <v>0.2135521329827516</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4.199582666666667</v>
+        <v>5.342589</v>
       </c>
       <c r="H3">
-        <v>12.598748</v>
+        <v>16.027767</v>
       </c>
       <c r="I3">
-        <v>0.3470882463138872</v>
+        <v>0.4438787133356475</v>
       </c>
       <c r="J3">
-        <v>0.3745187327618798</v>
+        <v>0.4621170122195802</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>13.086131</v>
       </c>
       <c r="O3">
-        <v>0.3605153670685209</v>
+        <v>0.3624119935622804</v>
       </c>
       <c r="P3">
-        <v>0.3890070028288486</v>
+        <v>0.3773029492651114</v>
       </c>
       <c r="Q3">
-        <v>18.31876297377645</v>
+        <v>23.304606511053</v>
       </c>
       <c r="R3">
-        <v>164.868866763988</v>
+        <v>209.741458599477</v>
       </c>
       <c r="S3">
-        <v>0.1251306465250203</v>
+        <v>0.160866969399832</v>
       </c>
       <c r="T3">
-        <v>0.1456904097349574</v>
+        <v>0.1743581116160291</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4.199582666666667</v>
+        <v>5.342589</v>
       </c>
       <c r="H4">
-        <v>12.598748</v>
+        <v>16.027767</v>
       </c>
       <c r="I4">
-        <v>0.3470882463138872</v>
+        <v>0.4438787133356475</v>
       </c>
       <c r="J4">
-        <v>0.3745187327618798</v>
+        <v>0.4621170122195802</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.7916129999999999</v>
+        <v>0.8673346666666665</v>
       </c>
       <c r="N4">
-        <v>2.374839</v>
+        <v>2.602004</v>
       </c>
       <c r="O4">
-        <v>0.0654254457496749</v>
+        <v>0.07206082965981524</v>
       </c>
       <c r="P4">
-        <v>0.07059603801849912</v>
+        <v>0.07502169917140648</v>
       </c>
       <c r="Q4">
-        <v>3.324444233508</v>
+        <v>4.633812649452</v>
       </c>
       <c r="R4">
-        <v>29.919998101572</v>
+        <v>41.70431384506799</v>
       </c>
       <c r="S4">
-        <v>0.02270840322955903</v>
+        <v>0.03198626835129805</v>
       </c>
       <c r="T4">
-        <v>0.02643953869669778</v>
+        <v>0.03466880347272652</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>4.199582666666667</v>
+        <v>5.342589</v>
       </c>
       <c r="H5">
-        <v>12.598748</v>
+        <v>16.027767</v>
       </c>
       <c r="I5">
-        <v>0.3470882463138872</v>
+        <v>0.4438787133356475</v>
       </c>
       <c r="J5">
-        <v>0.3745187327618798</v>
+        <v>0.4621170122195802</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.658566</v>
+        <v>1.425086</v>
       </c>
       <c r="N5">
-        <v>5.317132000000001</v>
+        <v>2.850172</v>
       </c>
       <c r="O5">
-        <v>0.2197258832345228</v>
+        <v>0.1184005245532914</v>
       </c>
       <c r="P5">
-        <v>0.1580605897163464</v>
+        <v>0.08217694760298831</v>
       </c>
       <c r="Q5">
-        <v>11.16486769178934</v>
+        <v>7.613648787653999</v>
       </c>
       <c r="R5">
-        <v>66.98920615073601</v>
+        <v>45.68189272592399</v>
       </c>
       <c r="S5">
-        <v>0.07626427148164046</v>
+        <v>0.05255547249698071</v>
       </c>
       <c r="T5">
-        <v>0.05919665176016146</v>
+        <v>0.03797536549961795</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,16 +785,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>4.199582666666667</v>
+        <v>5.342589</v>
       </c>
       <c r="H6">
-        <v>12.598748</v>
+        <v>16.027767</v>
       </c>
       <c r="I6">
-        <v>0.3470882463138872</v>
+        <v>0.4438787133356475</v>
       </c>
       <c r="J6">
-        <v>0.3745187327618798</v>
+        <v>0.4621170122195802</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -803,28 +803,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.08766133333333333</v>
+        <v>0.03909266666666666</v>
       </c>
       <c r="N6">
-        <v>0.262984</v>
+        <v>0.117278</v>
       </c>
       <c r="O6">
-        <v>0.007245057633394309</v>
+        <v>0.00324793888896551</v>
       </c>
       <c r="P6">
-        <v>0.007817636674425919</v>
+        <v>0.003381391740913623</v>
       </c>
       <c r="Q6">
-        <v>0.3681410160035556</v>
+        <v>0.208856050914</v>
       </c>
       <c r="R6">
-        <v>3.313269144032</v>
+        <v>1.879704458226</v>
       </c>
       <c r="S6">
-        <v>0.002514674348417872</v>
+        <v>0.001441690935026823</v>
       </c>
       <c r="T6">
-        <v>0.002927851380498791</v>
+        <v>0.001562598648454968</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>13.086131</v>
       </c>
       <c r="I7">
-        <v>0.3605153670685209</v>
+        <v>0.3624119935622804</v>
       </c>
       <c r="J7">
-        <v>0.3890070028288486</v>
+        <v>0.3773029492651114</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,28 +865,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.199582666666667</v>
+        <v>5.342589</v>
       </c>
       <c r="N7">
-        <v>12.598748</v>
+        <v>16.027767</v>
       </c>
       <c r="O7">
-        <v>0.3470882463138872</v>
+        <v>0.4438787133356475</v>
       </c>
       <c r="P7">
-        <v>0.3745187327618798</v>
+        <v>0.4621170122195802</v>
       </c>
       <c r="Q7">
-        <v>18.31876297377645</v>
+        <v>23.304606511053</v>
       </c>
       <c r="R7">
-        <v>164.868866763988</v>
+        <v>209.741458599477</v>
       </c>
       <c r="S7">
-        <v>0.1251306465250203</v>
+        <v>0.160866969399832</v>
       </c>
       <c r="T7">
-        <v>0.1456904097349574</v>
+        <v>0.1743581116160291</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>13.086131</v>
       </c>
       <c r="I8">
-        <v>0.3605153670685209</v>
+        <v>0.3624119935622804</v>
       </c>
       <c r="J8">
-        <v>0.3890070028288486</v>
+        <v>0.3773029492651114</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,10 +933,10 @@
         <v>13.086131</v>
       </c>
       <c r="O8">
-        <v>0.3605153670685209</v>
+        <v>0.3624119935622804</v>
       </c>
       <c r="P8">
-        <v>0.3890070028288486</v>
+        <v>0.3773029492651114</v>
       </c>
       <c r="Q8">
         <v>19.02742494990678</v>
@@ -945,10 +945,10 @@
         <v>171.246824549161</v>
       </c>
       <c r="S8">
-        <v>0.1299713298925504</v>
+        <v>0.1313424530777864</v>
       </c>
       <c r="T8">
-        <v>0.1513264482498838</v>
+        <v>0.1423575155241512</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>13.086131</v>
       </c>
       <c r="I9">
-        <v>0.3605153670685209</v>
+        <v>0.3624119935622804</v>
       </c>
       <c r="J9">
-        <v>0.3890070028288486</v>
+        <v>0.3773029492651114</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.7916129999999999</v>
+        <v>0.8673346666666665</v>
       </c>
       <c r="N9">
-        <v>2.374839</v>
+        <v>2.602004</v>
       </c>
       <c r="O9">
-        <v>0.0654254457496749</v>
+        <v>0.07206082965981524</v>
       </c>
       <c r="P9">
-        <v>0.07059603801849912</v>
+        <v>0.07502169917140648</v>
       </c>
       <c r="Q9">
-        <v>3.453050473100999</v>
+        <v>3.783351689613777</v>
       </c>
       <c r="R9">
-        <v>31.077454257909</v>
+        <v>34.05016520652399</v>
       </c>
       <c r="S9">
-        <v>0.02358687859006565</v>
+        <v>0.02611570893476554</v>
       </c>
       <c r="T9">
-        <v>0.02746235316116779</v>
+        <v>0.02830590835625163</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1039,10 +1039,10 @@
         <v>13.086131</v>
       </c>
       <c r="I10">
-        <v>0.3605153670685209</v>
+        <v>0.3624119935622804</v>
       </c>
       <c r="J10">
-        <v>0.3890070028288486</v>
+        <v>0.3773029492651114</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.658566</v>
+        <v>1.425086</v>
       </c>
       <c r="N10">
-        <v>5.317132000000001</v>
+        <v>2.850172</v>
       </c>
       <c r="O10">
-        <v>0.2197258832345228</v>
+        <v>0.1184005245532914</v>
       </c>
       <c r="P10">
-        <v>0.1580605897163464</v>
+        <v>0.08217694760298831</v>
       </c>
       <c r="Q10">
-        <v>11.59678098271534</v>
+        <v>6.216287360755333</v>
       </c>
       <c r="R10">
-        <v>69.58068589629201</v>
+        <v>37.297724164532</v>
       </c>
       <c r="S10">
-        <v>0.07921455744874895</v>
+        <v>0.04290977014217805</v>
       </c>
       <c r="T10">
-        <v>0.06148667627091624</v>
+        <v>0.03100560469221202</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1101,10 +1101,10 @@
         <v>13.086131</v>
       </c>
       <c r="I11">
-        <v>0.3605153670685209</v>
+        <v>0.3624119935622804</v>
       </c>
       <c r="J11">
-        <v>0.3890070028288486</v>
+        <v>0.3773029492651114</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -1113,28 +1113,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>0.08766133333333333</v>
+        <v>0.03909266666666666</v>
       </c>
       <c r="N11">
-        <v>0.262984</v>
+        <v>0.117278</v>
       </c>
       <c r="O11">
-        <v>0.007245057633394309</v>
+        <v>0.00324793888896551</v>
       </c>
       <c r="P11">
-        <v>0.007817636674425919</v>
+        <v>0.003381391740913623</v>
       </c>
       <c r="Q11">
-        <v>0.3823825638782222</v>
+        <v>0.1705239190464444</v>
       </c>
       <c r="R11">
-        <v>3.441443074904</v>
+        <v>1.534715271418</v>
       </c>
       <c r="S11">
-        <v>0.002611954612135739</v>
+        <v>0.001177092007718449</v>
       </c>
       <c r="T11">
-        <v>0.003041115411923314</v>
+        <v>0.0012758090764674</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.7916129999999999</v>
+        <v>0.8673346666666665</v>
       </c>
       <c r="H12">
-        <v>2.374839</v>
+        <v>2.602004</v>
       </c>
       <c r="I12">
-        <v>0.0654254457496749</v>
+        <v>0.07206082965981524</v>
       </c>
       <c r="J12">
-        <v>0.07059603801849912</v>
+        <v>0.07502169917140648</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>4.199582666666667</v>
+        <v>5.342589</v>
       </c>
       <c r="N12">
-        <v>12.598748</v>
+        <v>16.027767</v>
       </c>
       <c r="O12">
-        <v>0.3470882463138872</v>
+        <v>0.4438787133356475</v>
       </c>
       <c r="P12">
-        <v>0.3745187327618798</v>
+        <v>0.4621170122195802</v>
       </c>
       <c r="Q12">
-        <v>3.324444233508</v>
+        <v>4.633812649452</v>
       </c>
       <c r="R12">
-        <v>29.919998101572</v>
+        <v>41.70431384506799</v>
       </c>
       <c r="S12">
-        <v>0.02270840322955903</v>
+        <v>0.03198626835129805</v>
       </c>
       <c r="T12">
-        <v>0.02643953869669778</v>
+        <v>0.03466880347272652</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.7916129999999999</v>
+        <v>0.8673346666666665</v>
       </c>
       <c r="H13">
-        <v>2.374839</v>
+        <v>2.602004</v>
       </c>
       <c r="I13">
-        <v>0.0654254457496749</v>
+        <v>0.07206082965981524</v>
       </c>
       <c r="J13">
-        <v>0.07059603801849912</v>
+        <v>0.07502169917140648</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,22 +1243,22 @@
         <v>13.086131</v>
       </c>
       <c r="O13">
-        <v>0.3605153670685209</v>
+        <v>0.3624119935622804</v>
       </c>
       <c r="P13">
-        <v>0.3890070028288486</v>
+        <v>0.3773029492651114</v>
       </c>
       <c r="Q13">
-        <v>3.453050473100999</v>
+        <v>3.783351689613777</v>
       </c>
       <c r="R13">
-        <v>31.077454257909</v>
+        <v>34.05016520652399</v>
       </c>
       <c r="S13">
-        <v>0.02358687859006565</v>
+        <v>0.02611570893476554</v>
       </c>
       <c r="T13">
-        <v>0.02746235316116779</v>
+        <v>0.02830590835625163</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.7916129999999999</v>
+        <v>0.8673346666666665</v>
       </c>
       <c r="H14">
-        <v>2.374839</v>
+        <v>2.602004</v>
       </c>
       <c r="I14">
-        <v>0.0654254457496749</v>
+        <v>0.07206082965981524</v>
       </c>
       <c r="J14">
-        <v>0.07059603801849912</v>
+        <v>0.07502169917140648</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.7916129999999999</v>
+        <v>0.8673346666666665</v>
       </c>
       <c r="N14">
-        <v>2.374839</v>
+        <v>2.602004</v>
       </c>
       <c r="O14">
-        <v>0.0654254457496749</v>
+        <v>0.07206082965981524</v>
       </c>
       <c r="P14">
-        <v>0.07059603801849912</v>
+        <v>0.07502169917140648</v>
       </c>
       <c r="Q14">
-        <v>0.6266511417689998</v>
+        <v>0.7522694240017774</v>
       </c>
       <c r="R14">
-        <v>5.639860275920999</v>
+        <v>6.770424816015997</v>
       </c>
       <c r="S14">
-        <v>0.004280488951543654</v>
+        <v>0.005192763171260908</v>
       </c>
       <c r="T14">
-        <v>0.004983800583909373</v>
+        <v>0.005628255346565012</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.7916129999999999</v>
+        <v>0.8673346666666665</v>
       </c>
       <c r="H15">
-        <v>2.374839</v>
+        <v>2.602004</v>
       </c>
       <c r="I15">
-        <v>0.0654254457496749</v>
+        <v>0.07206082965981524</v>
       </c>
       <c r="J15">
-        <v>0.07059603801849912</v>
+        <v>0.07502169917140648</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1361,28 +1361,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>2.658566</v>
+        <v>1.425086</v>
       </c>
       <c r="N15">
-        <v>5.317132000000001</v>
+        <v>2.850172</v>
       </c>
       <c r="O15">
-        <v>0.2197258832345228</v>
+        <v>0.1184005245532914</v>
       </c>
       <c r="P15">
-        <v>0.1580605897163464</v>
+        <v>0.08217694760298831</v>
       </c>
       <c r="Q15">
-        <v>2.104555406958</v>
+        <v>1.236026490781333</v>
       </c>
       <c r="R15">
-        <v>12.627332441748</v>
+        <v>7.416158944687998</v>
       </c>
       <c r="S15">
-        <v>0.01437566385335967</v>
+        <v>0.008532040031467502</v>
       </c>
       <c r="T15">
-        <v>0.01115845140084158</v>
+        <v>0.006165054241895822</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.7916129999999999</v>
+        <v>0.8673346666666665</v>
       </c>
       <c r="H16">
-        <v>2.374839</v>
+        <v>2.602004</v>
       </c>
       <c r="I16">
-        <v>0.0654254457496749</v>
+        <v>0.07206082965981524</v>
       </c>
       <c r="J16">
-        <v>0.07059603801849912</v>
+        <v>0.07502169917140648</v>
       </c>
       <c r="K16">
         <v>1</v>
@@ -1423,28 +1423,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>0.08766133333333333</v>
+        <v>0.03909266666666666</v>
       </c>
       <c r="N16">
-        <v>0.262984</v>
+        <v>0.117278</v>
       </c>
       <c r="O16">
-        <v>0.007245057633394309</v>
+        <v>0.00324793888896551</v>
       </c>
       <c r="P16">
-        <v>0.007817636674425919</v>
+        <v>0.003381391740913623</v>
       </c>
       <c r="Q16">
-        <v>0.06939385106399999</v>
+        <v>0.03390642501244444</v>
       </c>
       <c r="R16">
-        <v>0.6245446595759999</v>
+        <v>0.3051578251119999</v>
       </c>
       <c r="S16">
-        <v>0.0004740111251469074</v>
+        <v>0.0002340491710232332</v>
       </c>
       <c r="T16">
-        <v>0.0005518941758825852</v>
+        <v>0.0002536777539675003</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>2.658566</v>
+        <v>1.425086</v>
       </c>
       <c r="H17">
-        <v>5.317132000000001</v>
+        <v>2.850172</v>
       </c>
       <c r="I17">
-        <v>0.2197258832345228</v>
+        <v>0.1184005245532914</v>
       </c>
       <c r="J17">
-        <v>0.1580605897163464</v>
+        <v>0.08217694760298831</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>4.199582666666667</v>
+        <v>5.342589</v>
       </c>
       <c r="N17">
-        <v>12.598748</v>
+        <v>16.027767</v>
       </c>
       <c r="O17">
-        <v>0.3470882463138872</v>
+        <v>0.4438787133356475</v>
       </c>
       <c r="P17">
-        <v>0.3745187327618798</v>
+        <v>0.4621170122195802</v>
       </c>
       <c r="Q17">
-        <v>11.16486769178934</v>
+        <v>7.613648787653999</v>
       </c>
       <c r="R17">
-        <v>66.98920615073601</v>
+        <v>45.68189272592399</v>
       </c>
       <c r="S17">
-        <v>0.07626427148164046</v>
+        <v>0.05255547249698071</v>
       </c>
       <c r="T17">
-        <v>0.05919665176016146</v>
+        <v>0.03797536549961795</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,16 +1529,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>2.658566</v>
+        <v>1.425086</v>
       </c>
       <c r="H18">
-        <v>5.317132000000001</v>
+        <v>2.850172</v>
       </c>
       <c r="I18">
-        <v>0.2197258832345228</v>
+        <v>0.1184005245532914</v>
       </c>
       <c r="J18">
-        <v>0.1580605897163464</v>
+        <v>0.08217694760298831</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,22 +1553,22 @@
         <v>13.086131</v>
       </c>
       <c r="O18">
-        <v>0.3605153670685209</v>
+        <v>0.3624119935622804</v>
       </c>
       <c r="P18">
-        <v>0.3890070028288486</v>
+        <v>0.3773029492651114</v>
       </c>
       <c r="Q18">
-        <v>11.59678098271534</v>
+        <v>6.216287360755333</v>
       </c>
       <c r="R18">
-        <v>69.58068589629201</v>
+        <v>37.297724164532</v>
       </c>
       <c r="S18">
-        <v>0.07921455744874895</v>
+        <v>0.04290977014217805</v>
       </c>
       <c r="T18">
-        <v>0.06148667627091624</v>
+        <v>0.03100560469221202</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,16 +1591,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>2.658566</v>
+        <v>1.425086</v>
       </c>
       <c r="H19">
-        <v>5.317132000000001</v>
+        <v>2.850172</v>
       </c>
       <c r="I19">
-        <v>0.2197258832345228</v>
+        <v>0.1184005245532914</v>
       </c>
       <c r="J19">
-        <v>0.1580605897163464</v>
+        <v>0.08217694760298831</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1609,28 +1609,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.7916129999999999</v>
+        <v>0.8673346666666665</v>
       </c>
       <c r="N19">
-        <v>2.374839</v>
+        <v>2.602004</v>
       </c>
       <c r="O19">
-        <v>0.0654254457496749</v>
+        <v>0.07206082965981524</v>
       </c>
       <c r="P19">
-        <v>0.07059603801849912</v>
+        <v>0.07502169917140648</v>
       </c>
       <c r="Q19">
-        <v>2.104555406958</v>
+        <v>1.236026490781333</v>
       </c>
       <c r="R19">
-        <v>12.627332441748</v>
+        <v>7.416158944687998</v>
       </c>
       <c r="S19">
-        <v>0.01437566385335967</v>
+        <v>0.008532040031467502</v>
       </c>
       <c r="T19">
-        <v>0.01115845140084158</v>
+        <v>0.006165054241895822</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,16 +1653,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>2.658566</v>
+        <v>1.425086</v>
       </c>
       <c r="H20">
-        <v>5.317132000000001</v>
+        <v>2.850172</v>
       </c>
       <c r="I20">
-        <v>0.2197258832345228</v>
+        <v>0.1184005245532914</v>
       </c>
       <c r="J20">
-        <v>0.1580605897163464</v>
+        <v>0.08217694760298831</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1671,28 +1671,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>2.658566</v>
+        <v>1.425086</v>
       </c>
       <c r="N20">
-        <v>5.317132000000001</v>
+        <v>2.850172</v>
       </c>
       <c r="O20">
-        <v>0.2197258832345228</v>
+        <v>0.1184005245532914</v>
       </c>
       <c r="P20">
-        <v>0.1580605897163464</v>
+        <v>0.08217694760298831</v>
       </c>
       <c r="Q20">
-        <v>7.067973176356002</v>
+        <v>2.030870107395999</v>
       </c>
       <c r="R20">
-        <v>28.27189270542401</v>
+        <v>8.123480429583998</v>
       </c>
       <c r="S20">
-        <v>0.04827946376319114</v>
+        <v>0.01401868421449455</v>
       </c>
       <c r="T20">
-        <v>0.02498315002147919</v>
+        <v>0.006753050717344286</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,16 +1715,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>2.658566</v>
+        <v>1.425086</v>
       </c>
       <c r="H21">
-        <v>5.317132000000001</v>
+        <v>2.850172</v>
       </c>
       <c r="I21">
-        <v>0.2197258832345228</v>
+        <v>0.1184005245532914</v>
       </c>
       <c r="J21">
-        <v>0.1580605897163464</v>
+        <v>0.08217694760298831</v>
       </c>
       <c r="K21">
         <v>1</v>
@@ -1733,28 +1733,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M21">
-        <v>0.08766133333333333</v>
+        <v>0.03909266666666666</v>
       </c>
       <c r="N21">
-        <v>0.262984</v>
+        <v>0.117278</v>
       </c>
       <c r="O21">
-        <v>0.007245057633394309</v>
+        <v>0.00324793888896551</v>
       </c>
       <c r="P21">
-        <v>0.007817636674425919</v>
+        <v>0.003381391740913623</v>
       </c>
       <c r="Q21">
-        <v>0.2330534403146667</v>
+        <v>0.05571041196933332</v>
       </c>
       <c r="R21">
-        <v>1.398320641888</v>
+        <v>0.3342624718159999</v>
       </c>
       <c r="S21">
-        <v>0.001591926687582586</v>
+        <v>0.0003845576681705508</v>
       </c>
       <c r="T21">
-        <v>0.001235660262947898</v>
+        <v>0.0002778724519182363</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,16 +1777,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G22">
-        <v>0.08766133333333333</v>
+        <v>0.03909266666666666</v>
       </c>
       <c r="H22">
-        <v>0.262984</v>
+        <v>0.117278</v>
       </c>
       <c r="I22">
-        <v>0.007245057633394309</v>
+        <v>0.00324793888896551</v>
       </c>
       <c r="J22">
-        <v>0.007817636674425919</v>
+        <v>0.003381391740913623</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1795,28 +1795,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>4.199582666666667</v>
+        <v>5.342589</v>
       </c>
       <c r="N22">
-        <v>12.598748</v>
+        <v>16.027767</v>
       </c>
       <c r="O22">
-        <v>0.3470882463138872</v>
+        <v>0.4438787133356475</v>
       </c>
       <c r="P22">
-        <v>0.3745187327618798</v>
+        <v>0.4621170122195802</v>
       </c>
       <c r="Q22">
-        <v>0.3681410160035556</v>
+        <v>0.208856050914</v>
       </c>
       <c r="R22">
-        <v>3.313269144032</v>
+        <v>1.879704458226</v>
       </c>
       <c r="S22">
-        <v>0.002514674348417872</v>
+        <v>0.001441690935026823</v>
       </c>
       <c r="T22">
-        <v>0.002927851380498791</v>
+        <v>0.001562598648454968</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,16 +1839,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G23">
-        <v>0.08766133333333333</v>
+        <v>0.03909266666666666</v>
       </c>
       <c r="H23">
-        <v>0.262984</v>
+        <v>0.117278</v>
       </c>
       <c r="I23">
-        <v>0.007245057633394309</v>
+        <v>0.00324793888896551</v>
       </c>
       <c r="J23">
-        <v>0.007817636674425919</v>
+        <v>0.003381391740913623</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,22 +1863,22 @@
         <v>13.086131</v>
       </c>
       <c r="O23">
-        <v>0.3605153670685209</v>
+        <v>0.3624119935622804</v>
       </c>
       <c r="P23">
-        <v>0.3890070028288486</v>
+        <v>0.3773029492651114</v>
       </c>
       <c r="Q23">
-        <v>0.3823825638782222</v>
+        <v>0.1705239190464444</v>
       </c>
       <c r="R23">
-        <v>3.441443074904</v>
+        <v>1.534715271418</v>
       </c>
       <c r="S23">
-        <v>0.002611954612135739</v>
+        <v>0.001177092007718449</v>
       </c>
       <c r="T23">
-        <v>0.003041115411923314</v>
+        <v>0.0012758090764674</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,16 +1901,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G24">
-        <v>0.08766133333333333</v>
+        <v>0.03909266666666666</v>
       </c>
       <c r="H24">
-        <v>0.262984</v>
+        <v>0.117278</v>
       </c>
       <c r="I24">
-        <v>0.007245057633394309</v>
+        <v>0.00324793888896551</v>
       </c>
       <c r="J24">
-        <v>0.007817636674425919</v>
+        <v>0.003381391740913623</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1919,28 +1919,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.7916129999999999</v>
+        <v>0.8673346666666665</v>
       </c>
       <c r="N24">
-        <v>2.374839</v>
+        <v>2.602004</v>
       </c>
       <c r="O24">
-        <v>0.0654254457496749</v>
+        <v>0.07206082965981524</v>
       </c>
       <c r="P24">
-        <v>0.07059603801849912</v>
+        <v>0.07502169917140648</v>
       </c>
       <c r="Q24">
-        <v>0.06939385106399999</v>
+        <v>0.03390642501244444</v>
       </c>
       <c r="R24">
-        <v>0.6245446595759999</v>
+        <v>0.3051578251119999</v>
       </c>
       <c r="S24">
-        <v>0.0004740111251469074</v>
+        <v>0.0002340491710232332</v>
       </c>
       <c r="T24">
-        <v>0.0005518941758825852</v>
+        <v>0.0002536777539675003</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,16 +1963,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G25">
-        <v>0.08766133333333333</v>
+        <v>0.03909266666666666</v>
       </c>
       <c r="H25">
-        <v>0.262984</v>
+        <v>0.117278</v>
       </c>
       <c r="I25">
-        <v>0.007245057633394309</v>
+        <v>0.00324793888896551</v>
       </c>
       <c r="J25">
-        <v>0.007817636674425919</v>
+        <v>0.003381391740913623</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1981,28 +1981,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>2.658566</v>
+        <v>1.425086</v>
       </c>
       <c r="N25">
-        <v>5.317132000000001</v>
+        <v>2.850172</v>
       </c>
       <c r="O25">
-        <v>0.2197258832345228</v>
+        <v>0.1184005245532914</v>
       </c>
       <c r="P25">
-        <v>0.1580605897163464</v>
+        <v>0.08217694760298831</v>
       </c>
       <c r="Q25">
-        <v>0.2330534403146667</v>
+        <v>0.05571041196933332</v>
       </c>
       <c r="R25">
-        <v>1.398320641888</v>
+        <v>0.3342624718159999</v>
       </c>
       <c r="S25">
-        <v>0.001591926687582586</v>
+        <v>0.0003845576681705508</v>
       </c>
       <c r="T25">
-        <v>0.001235660262947898</v>
+        <v>0.0002778724519182363</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,16 +2025,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G26">
-        <v>0.08766133333333333</v>
+        <v>0.03909266666666666</v>
       </c>
       <c r="H26">
-        <v>0.262984</v>
+        <v>0.117278</v>
       </c>
       <c r="I26">
-        <v>0.007245057633394309</v>
+        <v>0.00324793888896551</v>
       </c>
       <c r="J26">
-        <v>0.007817636674425919</v>
+        <v>0.003381391740913623</v>
       </c>
       <c r="K26">
         <v>1</v>
@@ -2043,28 +2043,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M26">
-        <v>0.08766133333333333</v>
+        <v>0.03909266666666666</v>
       </c>
       <c r="N26">
-        <v>0.262984</v>
+        <v>0.117278</v>
       </c>
       <c r="O26">
-        <v>0.007245057633394309</v>
+        <v>0.00324793888896551</v>
       </c>
       <c r="P26">
-        <v>0.007817636674425919</v>
+        <v>0.003381391740913623</v>
       </c>
       <c r="Q26">
-        <v>0.007684509361777777</v>
+        <v>0.001528236587111111</v>
       </c>
       <c r="R26">
-        <v>0.069160584256</v>
+        <v>0.013754129284</v>
       </c>
       <c r="S26">
-        <v>5.249086011120515E-05</v>
+        <v>1.054910702645451E-05</v>
       </c>
       <c r="T26">
-        <v>6.111544317332914E-05</v>
+        <v>1.143381010551886E-05</v>
       </c>
     </row>
   </sheetData>
